--- a/data/analysis/match_validation_model_comparison_all_vars-v1.xlsx
+++ b/data/analysis/match_validation_model_comparison_all_vars-v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209C1EB-3E7E-5C4B-A69C-55595452D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438559D3-C3B8-0744-B642-9A72E0E707DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="1520" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="4140" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match_validation_model_comparis" sheetId="1" r:id="rId1"/>
@@ -973,12 +973,16 @@
   <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -6651,7 +6655,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6662,7 +6666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
